--- a/public/file.xlsx
+++ b/public/file.xlsx
@@ -136,26 +136,26 @@
     </row>
     <row r="2" spans="1:16" customHeight="0">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>rafik</t>
+          <t>SLIMANI</t>
         </is>
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>harid</t>
+          <t>AMIROUCHE</t>
         </is>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>rafikharid7@gmail.com</t>
+          <t>takeonejutsu@gmail.com</t>
         </is>
       </c>
       <c r="G2" s="0" t="inlineStr">
         <is>
-          <t>2003-02-27</t>
+          <t>1994-05-17</t>
         </is>
       </c>
       <c r="H2" s="0" t="inlineStr">
@@ -165,42 +165,252 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>el abier</t>
+          <t>SAIDA</t>
         </is>
       </c>
       <c r="J2" s="0" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>MASTER</t>
         </is>
       </c>
       <c r="K2" s="0" t="inlineStr">
         <is>
-          <t>Choose...</t>
+          <t>Maladie coronaire</t>
         </is>
       </c>
       <c r="L2" s="0" t="inlineStr">
         <is>
+          <t>Gestion des ressources Humaines</t>
+        </is>
+      </c>
+      <c r="M2" s="0" t="inlineStr">
+        <is>
           <t>Photographie Professionnelle</t>
         </is>
       </c>
-      <c r="M2" s="0" t="inlineStr">
+      <c r="N2" s="0" t="inlineStr">
         <is>
           <t>Développement Web</t>
         </is>
       </c>
-      <c r="N2" s="0" t="inlineStr">
-        <is>
-          <t>Développement Application Mobile</t>
-        </is>
-      </c>
       <c r="O2" s="0" t="inlineStr">
         <is>
-          <t>0567893454</t>
+          <t>URGENCE</t>
         </is>
       </c>
       <c r="P2" s="0" t="inlineStr">
         <is>
-          <t>Cache</t>
+          <t>Chèque</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" spans="1:16" customHeight="0">
+      <c r="A3" s="0">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>SLIMANI</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>AMIROUCHE</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>admin@gmail.com</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>0033-03-31</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>SAIDA</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>3AS</t>
+        </is>
+      </c>
+      <c r="K3" s="0" t="inlineStr">
+        <is>
+          <t>Diabète de type 1 et diabète de type 2</t>
+        </is>
+      </c>
+      <c r="L3" s="0" t="inlineStr">
+        <is>
+          <t>Management des Entreprises</t>
+        </is>
+      </c>
+      <c r="M3" s="0" t="inlineStr">
+        <is>
+          <t>Design d’intérieur</t>
+        </is>
+      </c>
+      <c r="N3" s="0" t="inlineStr">
+        <is>
+          <t>Marketing Digital</t>
+        </is>
+      </c>
+      <c r="O3" s="0" t="inlineStr">
+        <is>
+          <t>URGENCE</t>
+        </is>
+      </c>
+      <c r="P3" s="0" t="inlineStr">
+        <is>
+          <t>Par tranches</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" spans="1:16" customHeight="0">
+      <c r="A4" s="0">
+        <v>13</v>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>RIAD</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>DJAKNOUN</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>daoud@gmail.com</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>0333-03-31</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>ALGER</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="K4" s="0" t="inlineStr">
+        <is>
+          <t>AUTRES</t>
+        </is>
+      </c>
+      <c r="L4" s="0" t="inlineStr">
+        <is>
+          <t>Commerce International</t>
+        </is>
+      </c>
+      <c r="M4" s="0" t="inlineStr">
+        <is>
+          <t>Design d’intérieur</t>
+        </is>
+      </c>
+      <c r="N4" s="0" t="inlineStr">
+        <is>
+          <t>Marketing Digital</t>
+        </is>
+      </c>
+      <c r="O4" s="0" t="inlineStr">
+        <is>
+          <t>URGENCE</t>
+        </is>
+      </c>
+      <c r="P4" s="0" t="inlineStr">
+        <is>
+          <t>Chèque</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" spans="1:16" customHeight="0">
+      <c r="A5" s="0">
+        <v>14</v>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>AEK</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>MAHIOUT</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>daoud@gmail.com</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>0888-08-08</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>ALGER</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="K5" s="0" t="inlineStr">
+        <is>
+          <t>AUTRES</t>
+        </is>
+      </c>
+      <c r="L5" s="0" t="inlineStr">
+        <is>
+          <t>Gestion des ressources Humaines</t>
+        </is>
+      </c>
+      <c r="M5" s="0" t="inlineStr">
+        <is>
+          <t>Web Design UI/UX</t>
+        </is>
+      </c>
+      <c r="N5" s="0" t="inlineStr">
+        <is>
+          <t>Copywriting et Rédaction Web</t>
+        </is>
+      </c>
+      <c r="O5" s="0" t="inlineStr">
+        <is>
+          <t>URGENCE</t>
+        </is>
+      </c>
+      <c r="P5" s="0" t="inlineStr">
+        <is>
+          <t>Par tranches</t>
         </is>
       </c>
     </row>
